--- a/EEMReportFinal/EEMReport/EEMReport/workflexdatastatus_amexcardDashboard1525890600000.xlsx
+++ b/EEMReportFinal/EEMReport/EEMReport/workflexdatastatus_amexcardDashboard1525890600000.xlsx
@@ -8660,7 +8660,7 @@
       </c>
       <c r="DI3" s="13"/>
       <c r="DL3" t="n">
-        <v>2000.0</v>
+        <v>333.0</v>
       </c>
       <c r="DM3" s="10"/>
       <c r="DN3" s="10"/>
@@ -9030,7 +9030,7 @@
       </c>
       <c r="DI4" s="13"/>
       <c r="DL4" t="n">
-        <v>23.0</v>
+        <v>55.0</v>
       </c>
       <c r="DM4" s="10"/>
       <c r="DN4" s="10"/>
@@ -9400,7 +9400,7 @@
       </c>
       <c r="DI5" s="13"/>
       <c r="DL5" t="n">
-        <v>34.0</v>
+        <v>4.0</v>
       </c>
       <c r="DM5" s="10"/>
       <c r="DN5" s="10"/>
@@ -9770,7 +9770,7 @@
       </c>
       <c r="DI6" s="13"/>
       <c r="DL6" t="n">
-        <v>123.0</v>
+        <v>2.0</v>
       </c>
       <c r="DM6" s="10"/>
       <c r="DN6" s="10"/>
@@ -10233,7 +10233,7 @@
       <c r="DI7" s="18"/>
       <c r="DL7" s="16" t="n">
         <f aca="false">DL6/DL5</f>
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM7" s="16"/>
       <c r="DN7" s="16"/>
@@ -10696,7 +10696,7 @@
       <c r="DI8" s="22"/>
       <c r="DL8" s="20" t="n">
         <f aca="false">(DL16+DL27+DL38+DL40)/DL3</f>
-        <v>0.034</v>
+        <v>1.4054054054054055</v>
       </c>
       <c r="DM8" s="20"/>
       <c r="DN8" s="20"/>
@@ -11859,7 +11859,7 @@
       <c r="DH12" s="10"/>
       <c r="DI12" s="26"/>
       <c r="DL12" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM12" s="10"/>
       <c r="DN12" s="10"/>
@@ -13405,7 +13405,7 @@
       </c>
       <c r="DI18" s="39"/>
       <c r="DL18" t="n">
-        <v>0.0</v>
+        <v>77.0</v>
       </c>
       <c r="DM18" s="36"/>
       <c r="DN18" s="36"/>
@@ -13775,7 +13775,7 @@
       </c>
       <c r="DI19" s="39"/>
       <c r="DL19" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM19" s="36"/>
       <c r="DN19" s="36"/>
@@ -14145,7 +14145,7 @@
       </c>
       <c r="DI20" s="13"/>
       <c r="DL20" t="n">
-        <v>55.0</v>
+        <v>4.0</v>
       </c>
       <c r="DM20" s="10"/>
       <c r="DN20" s="10"/>
@@ -14885,7 +14885,7 @@
       </c>
       <c r="DI22" s="13"/>
       <c r="DL22" t="n">
-        <v>34.0</v>
+        <v>4.0</v>
       </c>
       <c r="DM22" s="10"/>
       <c r="DN22" s="10"/>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="DI24" s="13"/>
       <c r="DL24" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="DM24" s="10"/>
       <c r="DN24" s="10"/>
@@ -17251,7 +17251,7 @@
       </c>
       <c r="DI29" s="39"/>
       <c r="DL29" t="n">
-        <v>435.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM29" s="36"/>
       <c r="DN29" s="36"/>
@@ -18361,7 +18361,7 @@
       </c>
       <c r="DI32" s="13"/>
       <c r="DL32" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM32" s="10"/>
       <c r="DN32" s="10"/>
@@ -19101,7 +19101,7 @@
       </c>
       <c r="DI34" s="13"/>
       <c r="DL34" t="n">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM34" s="10"/>
       <c r="DN34" s="10"/>
@@ -20357,7 +20357,7 @@
       </c>
       <c r="DI38" s="13"/>
       <c r="DL38" t="n">
-        <v>34.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM38" s="10"/>
       <c r="DN38" s="10"/>
@@ -20727,7 +20727,7 @@
       </c>
       <c r="DI39" s="13"/>
       <c r="DL39" t="n">
-        <v>33.0</v>
+        <v>234.0</v>
       </c>
       <c r="DM39" s="10"/>
       <c r="DN39" s="10"/>
@@ -21097,7 +21097,7 @@
       </c>
       <c r="DI40" s="13"/>
       <c r="DL40" t="n">
-        <v>34.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM40" s="10"/>
       <c r="DN40" s="10"/>
@@ -21467,7 +21467,7 @@
       </c>
       <c r="DI41" s="13"/>
       <c r="DL41" t="n">
-        <v>34.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM41" s="10"/>
       <c r="DN41" s="10"/>
@@ -21837,7 +21837,7 @@
       </c>
       <c r="DI42" s="13"/>
       <c r="DL42" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="DM42" s="10"/>
       <c r="DN42" s="10"/>
@@ -28639,7 +28639,7 @@
         <v>144</v>
       </c>
       <c r="B2" t="n" s="103">
-        <v>43230.0</v>
+        <v>43230.54578703704</v>
       </c>
       <c r="C2" t="n">
         <v>20.0</v>
@@ -28755,7 +28755,7 @@
         <v>149</v>
       </c>
       <c r="B3" t="n" s="104">
-        <v>43230.0</v>
+        <v>43230.548368055555</v>
       </c>
       <c r="C3" t="n">
         <v>30.0</v>
@@ -28871,7 +28871,7 @@
         <v>151</v>
       </c>
       <c r="B4" t="n" s="105">
-        <v>43230.0</v>
+        <v>43230.54976851852</v>
       </c>
       <c r="C4" t="n">
         <v>40.0</v>
@@ -28987,7 +28987,7 @@
         <v>152</v>
       </c>
       <c r="B5" t="n" s="106">
-        <v>43230.0</v>
+        <v>43230.55069444444</v>
       </c>
       <c r="C5" t="n">
         <v>70.0</v>
@@ -29103,7 +29103,7 @@
         <v>153</v>
       </c>
       <c r="B6" t="n" s="107">
-        <v>43230.0</v>
+        <v>43229.55196759259</v>
       </c>
       <c r="C6" t="n">
         <v>20.0</v>
@@ -29408,7 +29408,7 @@
         <v>144</v>
       </c>
       <c r="B2" t="n" s="98">
-        <v>43242.006261574075</v>
+        <v>43236.65914351852</v>
       </c>
       <c r="C2" t="n">
         <v>20.0</v>
@@ -29530,7 +29530,7 @@
         <v>144</v>
       </c>
       <c r="B3" t="n" s="99">
-        <v>43242.006261574075</v>
+        <v>43236.66354166667</v>
       </c>
       <c r="C3" t="n">
         <v>10.0</v>
@@ -29652,7 +29652,7 @@
         <v>144</v>
       </c>
       <c r="B4" t="n" s="100">
-        <v>43242.006261574075</v>
+        <v>43236.66354166667</v>
       </c>
       <c r="C4" t="n">
         <v>10.0</v>
@@ -29774,7 +29774,7 @@
         <v>144</v>
       </c>
       <c r="B5" t="n" s="101">
-        <v>43242.006273148145</v>
+        <v>43236.66354166667</v>
       </c>
       <c r="C5" t="n">
         <v>10.0</v>
@@ -29896,7 +29896,7 @@
         <v>149</v>
       </c>
       <c r="B6" t="n" s="102">
-        <v>43242.006273148145</v>
+        <v>43236.66354166667</v>
       </c>
       <c r="C6" t="n">
         <v>101.0</v>
